--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="192">
   <si>
     <t>土地坐落</t>
   </si>
@@ -380,6 +380,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>佳福公司</t>
   </si>
   <si>
@@ -483,6 +492,9 @@
   </si>
   <si>
     <t>200,-000</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2511,13 +2523,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2536,13 +2548,22 @@
       <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -2559,13 +2580,22 @@
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -2582,13 +2612,22 @@
       <c r="G3" s="2">
         <v>9070</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -2605,13 +2644,22 @@
       <c r="G4" s="2">
         <v>1960</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
@@ -2628,8 +2676,17 @@
       <c r="G5" s="2">
         <v>10380</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>108</v>
       </c>
@@ -2651,13 +2708,22 @@
       <c r="G6" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -2674,13 +2740,22 @@
       <c r="G7" s="2">
         <v>67470</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -2697,16 +2772,25 @@
       <c r="G8" s="2">
         <v>525000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -2720,13 +2804,22 @@
       <c r="G9" s="2">
         <v>57340</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -2743,13 +2836,22 @@
       <c r="G10" s="2">
         <v>620</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -2766,13 +2868,22 @@
       <c r="G11" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -2789,13 +2900,22 @@
       <c r="G12" s="2">
         <v>140260</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -2812,13 +2932,22 @@
       <c r="G13" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -2835,13 +2964,22 @@
       <c r="G14" s="2">
         <v>89870</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
@@ -2858,13 +2996,22 @@
       <c r="G15" s="2">
         <v>104540</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -2879,15 +3026,24 @@
         <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>155</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -2904,13 +3060,22 @@
       <c r="G17" s="2">
         <v>191540</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -2927,13 +3092,22 @@
       <c r="G18" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -2950,13 +3124,22 @@
       <c r="G19" s="2">
         <v>214000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -2973,13 +3156,22 @@
       <c r="G20" s="2">
         <v>206000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -2996,13 +3188,22 @@
       <c r="G21" s="2">
         <v>127810</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -3019,13 +3220,22 @@
       <c r="G22" s="2">
         <v>266200</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -3042,13 +3252,22 @@
       <c r="G23" s="2">
         <v>1090</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -3065,13 +3284,22 @@
       <c r="G24" s="2">
         <v>263520</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
@@ -3088,13 +3316,22 @@
       <c r="G25" s="2">
         <v>532660</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -3111,13 +3348,22 @@
       <c r="G26" s="2">
         <v>465540</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -3134,13 +3380,22 @@
       <c r="G27" s="2">
         <v>263830</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
@@ -3157,13 +3412,22 @@
       <c r="G28" s="2">
         <v>12110</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3180,13 +3444,22 @@
       <c r="G29" s="2">
         <v>24250</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>133</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -3201,15 +3474,24 @@
         <v>105</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>156</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>134</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
@@ -3226,13 +3508,22 @@
       <c r="G31" s="2">
         <v>121000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>39</v>
@@ -3249,13 +3540,22 @@
       <c r="G32" s="2">
         <v>470000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>39</v>
@@ -3264,13 +3564,22 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G33" s="2">
         <v>23500</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -3288,22 +3597,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>87</v>
@@ -3314,13 +3623,13 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2">
         <v>235.29</v>
@@ -3340,13 +3649,13 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -3366,13 +3675,13 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2">
         <v>195.77</v>
@@ -3392,13 +3701,13 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2">
         <v>281.97</v>
@@ -3418,13 +3727,13 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2">
         <v>16.936</v>
@@ -3444,13 +3753,13 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2">
         <v>854.27</v>
@@ -3470,13 +3779,13 @@
         <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2">
         <v>1705.24</v>
@@ -3496,13 +3805,13 @@
         <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2">
         <v>663.01</v>
@@ -3522,13 +3831,13 @@
         <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2">
         <v>1028.43</v>
@@ -3548,13 +3857,13 @@
         <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2">
         <v>17.55</v>
@@ -3587,19 +3896,19 @@
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3607,22 +3916,22 @@
         <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3640,22 +3949,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3666,10 +3975,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -3678,7 +3987,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3689,19 +3998,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="194">
   <si>
     <t>土地坐落</t>
   </si>
@@ -380,6 +380,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -413,10 +416,10 @@
     <t>遠東新</t>
   </si>
   <si>
-    <t>聯電'</t>
-  </si>
-  <si>
-    <t>鴻'繊密</t>
+    <t>聯電</t>
+  </si>
+  <si>
+    <t>鴻繊密</t>
   </si>
   <si>
     <t>博達</t>
@@ -485,13 +488,16 @@
     <t>徐少萍.</t>
   </si>
   <si>
-    <t>• 10</t>
-  </si>
-  <si>
-    <t>' 27,830</t>
-  </si>
-  <si>
-    <t>200,-000</t>
+    <t>•10</t>
+  </si>
+  <si>
+    <t>27830</t>
+  </si>
+  <si>
+    <t>200-000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-22</t>
@@ -2523,13 +2529,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2557,13 +2563,16 @@
       <c r="J1" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -2581,21 +2590,24 @@
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2">
+        <v>159</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -2613,21 +2625,24 @@
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2">
+        <v>159</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -2645,21 +2660,24 @@
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2">
+        <v>159</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
@@ -2677,16 +2695,19 @@
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2">
+        <v>159</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>108</v>
       </c>
@@ -2709,21 +2730,24 @@
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2">
+        <v>159</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -2741,21 +2765,24 @@
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
+        <v>159</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -2773,24 +2800,27 @@
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2">
+        <v>159</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -2805,21 +2835,24 @@
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2">
+        <v>159</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -2837,21 +2870,24 @@
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2">
+        <v>159</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -2869,21 +2905,24 @@
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2">
+        <v>159</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -2901,21 +2940,24 @@
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2">
+        <v>159</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -2933,21 +2975,24 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="2">
+        <v>159</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -2965,21 +3010,24 @@
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="2">
+        <v>159</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
@@ -2997,21 +3045,24 @@
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="2">
+        <v>159</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -3026,24 +3077,27 @@
         <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="2">
+        <v>159</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -3061,21 +3115,24 @@
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="2">
+        <v>159</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -3093,21 +3150,24 @@
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="2">
+        <v>159</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -3125,21 +3185,24 @@
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="2">
+        <v>159</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -3157,21 +3220,24 @@
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="2">
+        <v>159</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -3189,21 +3255,24 @@
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="2">
+        <v>159</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -3221,21 +3290,24 @@
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="2">
+        <v>159</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -3253,21 +3325,24 @@
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2">
+        <v>159</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -3285,21 +3360,24 @@
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="2">
+        <v>159</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
@@ -3317,21 +3395,24 @@
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="2">
+        <v>159</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -3349,21 +3430,24 @@
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="2">
+        <v>159</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -3381,21 +3465,24 @@
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="2">
+        <v>159</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
@@ -3413,21 +3500,24 @@
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="2">
+        <v>159</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3445,21 +3535,24 @@
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="2">
+        <v>159</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>133</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -3474,24 +3567,27 @@
         <v>105</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="2">
+        <v>159</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>134</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
@@ -3509,21 +3605,24 @@
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="2">
+        <v>159</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>39</v>
@@ -3541,21 +3640,24 @@
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="2">
+        <v>159</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>39</v>
@@ -3564,7 +3666,7 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>105</v>
@@ -3573,12 +3675,15 @@
         <v>23500</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="2">
+        <v>159</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="2">
         <v>726</v>
       </c>
     </row>
@@ -3597,22 +3702,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>87</v>
@@ -3623,13 +3728,13 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E2" s="2">
         <v>235.29</v>
@@ -3649,13 +3754,13 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -3675,13 +3780,13 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2">
         <v>195.77</v>
@@ -3701,13 +3806,13 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2">
         <v>281.97</v>
@@ -3727,13 +3832,13 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2">
         <v>16.936</v>
@@ -3753,13 +3858,13 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2">
         <v>854.27</v>
@@ -3779,13 +3884,13 @@
         <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E8" s="2">
         <v>1705.24</v>
@@ -3805,13 +3910,13 @@
         <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2">
         <v>663.01</v>
@@ -3831,13 +3936,13 @@
         <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2">
         <v>1028.43</v>
@@ -3857,13 +3962,13 @@
         <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2">
         <v>17.55</v>
@@ -3896,19 +4001,19 @@
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3916,22 +4021,22 @@
         <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3949,22 +4054,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3975,10 +4080,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -3987,7 +4092,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3998,19 +4103,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="199">
   <si>
     <t>土地坐落</t>
   </si>
@@ -383,6 +383,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -392,6 +395,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>佳福公司</t>
   </si>
   <si>
@@ -488,19 +497,25 @@
     <t>徐少萍.</t>
   </si>
   <si>
-    <t>•10</t>
+    <t>10</t>
   </si>
   <si>
     <t>27830</t>
   </si>
   <si>
-    <t>200-000</t>
+    <t>200000</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpc12c1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2529,13 +2544,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -2566,13 +2581,22 @@
       <c r="K1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -2590,24 +2614,33 @@
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2">
+        <v>163</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -2625,24 +2658,33 @@
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2">
+        <v>163</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -2660,24 +2702,33 @@
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2">
+        <v>163</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
@@ -2695,19 +2746,28 @@
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2">
+        <v>163</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>108</v>
       </c>
@@ -2730,24 +2790,33 @@
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2">
+        <v>163</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -2765,24 +2834,33 @@
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="2">
+        <v>163</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N7" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -2800,27 +2878,36 @@
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2">
+        <v>163</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -2835,24 +2922,33 @@
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="2">
+        <v>163</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -2870,24 +2966,33 @@
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2">
+        <v>163</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -2905,24 +3010,33 @@
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2">
+        <v>163</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -2940,24 +3054,33 @@
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="2">
+        <v>163</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -2975,24 +3098,33 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="2">
+        <v>163</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -3010,24 +3142,33 @@
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="2">
+        <v>163</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
@@ -3045,24 +3186,33 @@
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="2">
+        <v>163</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N15" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -3077,27 +3227,36 @@
         <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="2">
+        <v>163</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N16" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -3115,24 +3274,33 @@
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="2">
+        <v>163</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -3150,24 +3318,33 @@
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="2">
+        <v>163</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -3185,24 +3362,33 @@
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="2">
+        <v>163</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N19" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -3220,24 +3406,33 @@
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="2">
+        <v>163</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -3255,24 +3450,33 @@
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="2">
+        <v>163</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -3290,24 +3494,33 @@
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="2">
+        <v>163</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N22" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -3325,24 +3538,33 @@
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="2">
+        <v>163</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N23" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -3360,24 +3582,33 @@
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="2">
+        <v>163</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N24" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
@@ -3395,24 +3626,33 @@
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="2">
+        <v>163</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N25" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -3430,24 +3670,33 @@
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="2">
+        <v>163</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N26" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -3465,24 +3714,33 @@
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="2">
+        <v>163</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N27" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
@@ -3500,24 +3758,33 @@
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="2">
+        <v>163</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3535,24 +3802,33 @@
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="2">
+        <v>163</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>133</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -3567,27 +3843,36 @@
         <v>105</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="2">
+        <v>163</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>134</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
@@ -3605,24 +3890,33 @@
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="2">
+        <v>163</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N31" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>39</v>
@@ -3640,24 +3934,33 @@
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="2">
+        <v>163</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>39</v>
@@ -3666,7 +3969,7 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>105</v>
@@ -3675,16 +3978,25 @@
         <v>23500</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="2">
+        <v>163</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="2">
         <v>726</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="2">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3702,22 +4014,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>87</v>
@@ -3728,13 +4040,13 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2">
         <v>235.29</v>
@@ -3754,13 +4066,13 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -3780,13 +4092,13 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2">
         <v>195.77</v>
@@ -3806,13 +4118,13 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2">
         <v>281.97</v>
@@ -3832,13 +4144,13 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E6" s="2">
         <v>16.936</v>
@@ -3858,13 +4170,13 @@
         <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2">
         <v>854.27</v>
@@ -3884,13 +4196,13 @@
         <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E8" s="2">
         <v>1705.24</v>
@@ -3910,13 +4222,13 @@
         <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E9" s="2">
         <v>663.01</v>
@@ -3936,13 +4248,13 @@
         <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2">
         <v>1028.43</v>
@@ -3962,13 +4274,13 @@
         <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2">
         <v>17.55</v>
@@ -4001,19 +4313,19 @@
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4021,22 +4333,22 @@
         <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4054,22 +4366,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4080,10 +4392,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -4092,7 +4404,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4103,19 +4415,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -21,12 +21,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="199">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積G平方公尺）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="199">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>基隆市中山區仁德段06880000地號</t>
+  </si>
+  <si>
+    <t>基隆市中山區仁德段06880001地號</t>
+  </si>
+  <si>
+    <t>基隆市中山區仁德段06880002地號</t>
+  </si>
+  <si>
+    <t>新北市萬里區萬里段00960000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08190000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08290000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08300000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08440000地號</t>
+  </si>
+  <si>
+    <t>毹園縣桃園市慈文段14800000地號</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市慈文段15320000地號</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區暖暖段暖暖小段04400000地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區祥豐段01810000地號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段00180000地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820014地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820016地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820017地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820018地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820022地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820024地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820025地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820029地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>10000分之22</t>
+  </si>
+  <si>
+    <t>120分之4</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之169</t>
+  </si>
+  <si>
+    <t>70分之10</t>
+  </si>
+  <si>
+    <t>10000分之115</t>
+  </si>
+  <si>
+    <t>10000分之2</t>
+  </si>
+  <si>
+    <t>10000分之329</t>
+  </si>
+  <si>
+    <t>10000分之4</t>
+  </si>
+  <si>
+    <t>林水木</t>
+  </si>
+  <si>
+    <t>徐少萍</t>
+  </si>
+  <si>
+    <t>60年</t>
+  </si>
+  <si>
+    <t>78年</t>
+  </si>
+  <si>
+    <t>79年</t>
+  </si>
+  <si>
+    <t>76年</t>
+  </si>
+  <si>
+    <t>92年09月17日</t>
+  </si>
+  <si>
+    <t>95年03月29日</t>
+  </si>
+  <si>
+    <t>97年01月10日</t>
+  </si>
+  <si>
+    <t>99年05月26日</t>
+  </si>
+  <si>
+    <t>CCX3SS貝賈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>CCQsa貝賈</t>
+  </si>
+  <si>
+    <t>CXZ3SS貝賣</t>
+  </si>
+  <si>
+    <t>crx7s貝賣</t>
+  </si>
+  <si>
+    <t>(抵債）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>6000000元(與3938建號建物一併購買）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpc12c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>面積（平方公尺）</t>
   </si>
   <si>
     <t>權利範圍（持分）</t>
@@ -38,202 +242,40 @@
     <t>登記（取得)時間</t>
   </si>
   <si>
-    <t>'登記（取得）原因</t>
+    <t>登記（取得）原因</t>
   </si>
   <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>基隆市中山區仁德段0688-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市中山區仁德段0688-0001 地號</t>
-  </si>
-  <si>
-    <t>基隆市中山區仁德段0688-0002 地號</t>
-  </si>
-  <si>
-    <t>新北市萬里區萬里段0096-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0819-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0829-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0830-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0844-0000 地號</t>
-  </si>
-  <si>
-    <t>毹園縣桃園市慈文段1480-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市慈文段1532-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市暖暖區暖暖段暖暖小段 0440-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區祥豐段0181 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段 0018-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0014 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0016 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0017 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0018 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0022 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0024 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0025 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0029 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>10000分之 22</t>
-  </si>
-  <si>
-    <t>120分之4</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 169</t>
-  </si>
-  <si>
-    <t>70分之10</t>
-  </si>
-  <si>
-    <t>10000分之 115</t>
-  </si>
-  <si>
-    <t>10000分之 2</t>
-  </si>
-  <si>
-    <t>10000分之 329 '</t>
-  </si>
-  <si>
-    <t>10000分之 4</t>
-  </si>
-  <si>
-    <t>10000分之 329</t>
-  </si>
-  <si>
-    <t>林水木</t>
-  </si>
-  <si>
-    <t>徐少萍</t>
-  </si>
-  <si>
-    <t>60年</t>
-  </si>
-  <si>
-    <t>78年</t>
-  </si>
-  <si>
-    <t>79年</t>
-  </si>
-  <si>
-    <t>76年</t>
-  </si>
-  <si>
-    <t>92年09月 17日</t>
-  </si>
-  <si>
-    <t>95年03月 29日</t>
-  </si>
-  <si>
-    <t>97年01月 10日</t>
-  </si>
-  <si>
-    <t>99年05月 26日</t>
-  </si>
-  <si>
-    <t>CCX3-SS 貝賈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>CCQ-sa 貝賈</t>
-  </si>
-  <si>
-    <t>CXZ3-SS 貝賣</t>
-  </si>
-  <si>
-    <t>crx7-s^ 貝賣</t>
-  </si>
-  <si>
-    <t>(抵債）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>6,000,000 元(與 3938建號建物 一併購買）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>基隆市暖暖區暖暖段暖暖小段 01245-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市仁愛區中央段四小段 00480-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市仁愛區中央段四小段 00483-000 建號</t>
-  </si>
-  <si>
-    <t>新北市萬里區萬里段00687-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段 03938-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07353-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07359-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07198-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07256-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07348-000 建號</t>
+    <t>基隆市暖暖區暖暖段暖暖小段01245000建號</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區中央段四小段00480000建號</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區中央段四小段00483000建號</t>
+  </si>
+  <si>
+    <t>新北市萬里區萬里段00687000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段03938000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07353000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07359000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07198000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07256000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07348000建號</t>
   </si>
   <si>
     <t>422分之2</t>
@@ -245,10 +287,10 @@
     <t>79分之2</t>
   </si>
   <si>
-    <t>91年01月 04日</t>
-  </si>
-  <si>
-    <t>6,000,000 元（與 18地號土地一 併購買）</t>
+    <t>91年01月04日</t>
+  </si>
+  <si>
+    <t>6000000元（與18地號土地一併購買）</t>
   </si>
   <si>
     <t>種類</t>
@@ -263,16 +305,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>廠 牌型號</t>
-  </si>
-  <si>
-    <t>汽 缸容量</t>
-  </si>
-  <si>
-    <t>登記（取得 )時間</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -356,16 +392,10 @@
     <t>林水术</t>
   </si>
   <si>
-    <t>97,096/58</t>
-  </si>
-  <si>
-    <t>539.86,</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>9709658</t>
+  </si>
+  <si>
+    <t>539.86</t>
   </si>
   <si>
     <t>quantity</t>
@@ -380,27 +410,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>佳福公司</t>
   </si>
   <si>
@@ -509,15 +518,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmpc12c1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -533,28 +533,28 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>貝萊德世界礦業 基金</t>
-  </si>
-  <si>
-    <t>天達動力資源基 金</t>
-  </si>
-  <si>
-    <t>施羅德環球美元 流動基金</t>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>天達動力資源基金</t>
+  </si>
+  <si>
+    <t>施羅德環球美元流動基金</t>
   </si>
   <si>
     <t>瑞銀美元基金</t>
   </si>
   <si>
-    <t>貝萊德美元儲備 基金</t>
-  </si>
-  <si>
-    <t>貝萊德環球資產 配置基金</t>
+    <t>貝萊德美元儲備基金</t>
+  </si>
+  <si>
+    <t>貝萊德環球資產配置基金</t>
   </si>
   <si>
     <t>景順美元儲備基</t>
   </si>
   <si>
-    <t>貝萊德新興市場 基金</t>
+    <t>貝萊德新興市場基金</t>
   </si>
   <si>
     <t>台北富邦銀行</t>
@@ -581,7 +581,7 @@
     <t>基隆市第二信用合作社</t>
   </si>
   <si>
-    <t>92年09月 17曰</t>
+    <t>92年09月17曰</t>
   </si>
   <si>
     <t>設定抵押</t>
@@ -611,7 +611,7 @@
     <t>基隆市孝三路101號3樓</t>
   </si>
   <si>
-    <t>基隆市中正區港通里中正路 12號7樓</t>
+    <t>基隆市中正區港通里中正路12號7樓</t>
   </si>
   <si>
     <t>86年</t>
@@ -976,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,536 +1004,998 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2">
+        <v>726</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2">
+        <v>726</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2">
+        <v>726</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>10750.88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>726</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>144.76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>726</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>195.81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>726</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>13.15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2">
+        <v>726</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>57.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2">
+        <v>726</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2">
+        <v>726</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>726</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1593</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>726</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1056</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2">
+        <v>726</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2">
+        <v>726</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>419.66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="2">
+        <v>726</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>1698.07</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="2">
+        <v>726</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>3293.16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="2">
+        <v>726</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>1242.85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="2">
+        <v>726</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>558.71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="2">
+        <v>726</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>594.14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="2">
+        <v>726</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>408.38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="2">
+        <v>726</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>1966.44</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="2">
+        <v>726</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="2">
         <v>35</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1550,25 +2012,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1576,25 +2038,25 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2">
         <v>51.04</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1602,25 +2064,25 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>191.7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1628,25 +2090,25 @@
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2">
         <v>191.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1654,25 +2116,25 @@
         <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2">
         <v>25788.13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1680,25 +2142,25 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>32.81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1706,22 +2168,22 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
         <v>103.51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1730,22 +2192,22 @@
         <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2">
         <v>102.06</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1754,22 +2216,22 @@
         <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1778,22 +2240,22 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2">
         <v>6.73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1802,22 +2264,22 @@
         <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2">
         <v>7.05</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1836,22 +2298,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1859,22 +2321,22 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1892,22 +2354,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1915,16 +2377,16 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1936,16 +2398,16 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1957,16 +2419,16 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1978,16 +2440,16 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1999,16 +2461,16 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2020,16 +2482,16 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2041,16 +2503,16 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2062,16 +2524,16 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2083,16 +2545,16 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2104,16 +2566,16 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2125,16 +2587,16 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2146,16 +2608,16 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2167,16 +2629,16 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2188,16 +2650,16 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2209,16 +2671,16 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2230,16 +2692,16 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2251,16 +2713,16 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2272,16 +2734,16 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2293,16 +2755,16 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2314,16 +2776,16 @@
         <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2335,19 +2797,19 @@
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G22" s="2">
         <v>2932316</v>
@@ -2358,16 +2820,16 @@
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2">
         <v>0.18</v>
@@ -2381,16 +2843,16 @@
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2">
         <v>1.54</v>
@@ -2404,16 +2866,16 @@
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2">
         <v>0.06</v>
@@ -2427,16 +2889,16 @@
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2">
         <v>33148.2</v>
@@ -2450,16 +2912,16 @@
         <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F27" s="2">
         <v>15095.1</v>
@@ -2473,16 +2935,16 @@
         <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2">
         <v>3738.91</v>
@@ -2496,16 +2958,16 @@
         <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2">
         <v>2.44</v>
@@ -2519,22 +2981,22 @@
         <v>97</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F30" s="2">
         <v>18.11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2552,43 +3014,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2596,10 +3058,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
         <v>1000</v>
@@ -2608,28 +3070,28 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2">
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2">
         <v>104</v>
@@ -2640,10 +3102,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>907</v>
@@ -2652,28 +3114,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2">
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2">
         <v>726</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N3" s="2">
         <v>105</v>
@@ -2684,10 +3146,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
         <v>196</v>
@@ -2696,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2">
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2">
         <v>726</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2">
         <v>106</v>
@@ -2728,10 +3190,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
         <v>1038</v>
@@ -2740,28 +3202,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2">
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2">
         <v>726</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2">
         <v>107</v>
@@ -2772,10 +3234,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -2784,28 +3246,28 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2">
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2">
         <v>726</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N6" s="2">
         <v>108</v>
@@ -2816,10 +3278,10 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2">
         <v>6747</v>
@@ -2828,28 +3290,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G7" s="2">
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2">
         <v>726</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N7" s="2">
         <v>109</v>
@@ -2860,10 +3322,10 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>52500</v>
@@ -2872,28 +3334,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G8" s="2">
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L8" s="2">
         <v>726</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N8" s="2">
         <v>110</v>
@@ -2904,10 +3366,10 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -2916,28 +3378,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G9" s="2">
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L9" s="2">
         <v>726</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N9" s="2">
         <v>111</v>
@@ -2948,10 +3410,10 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>62</v>
@@ -2960,28 +3422,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G10" s="2">
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L10" s="2">
         <v>726</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N10" s="2">
         <v>112</v>
@@ -2992,10 +3454,10 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
         <v>5000</v>
@@ -3004,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L11" s="2">
         <v>726</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N11" s="2">
         <v>113</v>
@@ -3036,10 +3498,10 @@
         <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
         <v>14026</v>
@@ -3048,28 +3510,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G12" s="2">
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L12" s="2">
         <v>726</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N12" s="2">
         <v>114</v>
@@ -3080,10 +3542,10 @@
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>20000</v>
@@ -3092,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L13" s="2">
         <v>726</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N13" s="2">
         <v>115</v>
@@ -3124,10 +3586,10 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>8987</v>
@@ -3136,28 +3598,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G14" s="2">
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L14" s="2">
         <v>726</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N14" s="2">
         <v>116</v>
@@ -3168,10 +3630,10 @@
         <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
         <v>10454</v>
@@ -3180,28 +3642,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G15" s="2">
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L15" s="2">
         <v>726</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N15" s="2">
         <v>117</v>
@@ -3212,10 +3674,10 @@
         <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2">
         <v>2783</v>
@@ -3224,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L16" s="2">
         <v>726</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N16" s="2">
         <v>118</v>
@@ -3256,10 +3718,10 @@
         <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>19154</v>
@@ -3268,28 +3730,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G17" s="2">
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L17" s="2">
         <v>726</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N17" s="2">
         <v>119</v>
@@ -3300,10 +3762,10 @@
         <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
         <v>5000</v>
@@ -3312,28 +3774,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G18" s="2">
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L18" s="2">
         <v>726</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N18" s="2">
         <v>120</v>
@@ -3344,10 +3806,10 @@
         <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
         <v>21400</v>
@@ -3356,28 +3818,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2">
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L19" s="2">
         <v>726</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N19" s="2">
         <v>122</v>
@@ -3388,10 +3850,10 @@
         <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2">
         <v>20600</v>
@@ -3400,28 +3862,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G20" s="2">
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L20" s="2">
         <v>726</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N20" s="2">
         <v>123</v>
@@ -3432,10 +3894,10 @@
         <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2">
         <v>12781</v>
@@ -3444,28 +3906,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G21" s="2">
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L21" s="2">
         <v>726</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N21" s="2">
         <v>124</v>
@@ -3476,10 +3938,10 @@
         <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2">
         <v>26620</v>
@@ -3488,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2">
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L22" s="2">
         <v>726</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N22" s="2">
         <v>125</v>
@@ -3520,10 +3982,10 @@
         <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>109</v>
@@ -3532,28 +3994,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G23" s="2">
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L23" s="2">
         <v>726</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N23" s="2">
         <v>126</v>
@@ -3564,10 +4026,10 @@
         <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2">
         <v>26352</v>
@@ -3576,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G24" s="2">
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L24" s="2">
         <v>726</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N24" s="2">
         <v>127</v>
@@ -3608,10 +4070,10 @@
         <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>53266</v>
@@ -3620,28 +4082,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G25" s="2">
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L25" s="2">
         <v>726</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N25" s="2">
         <v>128</v>
@@ -3652,10 +4114,10 @@
         <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2">
         <v>46554</v>
@@ -3664,28 +4126,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2">
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L26" s="2">
         <v>726</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N26" s="2">
         <v>129</v>
@@ -3696,10 +4158,10 @@
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2">
         <v>26383</v>
@@ -3708,28 +4170,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2">
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L27" s="2">
         <v>726</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N27" s="2">
         <v>130</v>
@@ -3740,10 +4202,10 @@
         <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
         <v>1211</v>
@@ -3752,28 +4214,28 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G28" s="2">
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L28" s="2">
         <v>726</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N28" s="2">
         <v>131</v>
@@ -3784,10 +4246,10 @@
         <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2">
         <v>2425</v>
@@ -3796,28 +4258,28 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G29" s="2">
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L29" s="2">
         <v>726</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N29" s="2">
         <v>132</v>
@@ -3828,10 +4290,10 @@
         <v>133</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>20000</v>
@@ -3840,28 +4302,28 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L30" s="2">
         <v>726</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N30" s="2">
         <v>133</v>
@@ -3872,10 +4334,10 @@
         <v>134</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2">
         <v>12100</v>
@@ -3884,28 +4346,28 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G31" s="2">
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L31" s="2">
         <v>726</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N31" s="2">
         <v>134</v>
@@ -3916,10 +4378,10 @@
         <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2">
         <v>47000</v>
@@ -3928,28 +4390,28 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G32" s="2">
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L32" s="2">
         <v>726</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N32" s="2">
         <v>135</v>
@@ -3960,40 +4422,40 @@
         <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2">
         <v>2350</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G33" s="2">
         <v>23500</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L33" s="2">
         <v>726</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="N33" s="2">
         <v>136</v>
@@ -4017,7 +4479,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>166</v>
@@ -4032,7 +4494,7 @@
         <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4043,7 +4505,7 @@
         <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>178</v>
@@ -4055,7 +4517,7 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H2" s="2">
         <v>457397</v>
@@ -4069,7 +4531,7 @@
         <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>178</v>
@@ -4081,7 +4543,7 @@
         <v>10.35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2">
         <v>423683</v>
@@ -4095,7 +4557,7 @@
         <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>178</v>
@@ -4107,7 +4569,7 @@
         <v>105.05</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2">
         <v>621082</v>
@@ -4121,7 +4583,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>178</v>
@@ -4133,7 +4595,7 @@
         <v>64.37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2">
         <v>548142</v>
@@ -4147,7 +4609,7 @@
         <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>178</v>
@@ -4159,7 +4621,7 @@
         <v>1720.26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H6" s="2">
         <v>880040</v>
@@ -4173,7 +4635,7 @@
         <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>178</v>
@@ -4185,7 +4647,7 @@
         <v>150.83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2">
         <v>3891256</v>
@@ -4199,7 +4661,7 @@
         <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>178</v>
@@ -4211,7 +4673,7 @@
         <v>40.19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2">
         <v>2069714</v>
@@ -4225,7 +4687,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>178</v>
@@ -4237,7 +4699,7 @@
         <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2">
         <v>1741966</v>
@@ -4251,7 +4713,7 @@
         <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>178</v>
@@ -4263,7 +4725,7 @@
         <v>26.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H10" s="2">
         <v>830506</v>
@@ -4277,7 +4739,7 @@
         <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>178</v>
@@ -4289,7 +4751,7 @@
         <v>64.37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H11" s="2">
         <v>34116</v>
@@ -4310,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>179</v>
@@ -4336,7 +4798,7 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4389,7 +4851,7 @@
         <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>193</v>
@@ -4401,7 +4863,7 @@
         <v>375000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>198</v>
@@ -4412,7 +4874,7 @@
         <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>194</v>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -9,19 +9,18 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -200,18 +199,6 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>CCQsa貝賈</t>
-  </si>
-  <si>
-    <t>CXZ3SS貝賣</t>
-  </si>
-  <si>
-    <t>crx7s貝賣</t>
-  </si>
-  <si>
     <t>(抵債）</t>
   </si>
   <si>
@@ -276,24 +263,6 @@
   </si>
   <si>
     <t>6000000元（與18地號土地一併購買）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
   </si>
   <si>
     <t>中華郵政股份有限公司</t>
@@ -980,16 +949,16 @@
         <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>48</v>
@@ -998,7 +967,7 @@
         <v>726</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O2" s="2">
         <v>14</v>
@@ -1033,16 +1002,16 @@
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>48</v>
@@ -1051,7 +1020,7 @@
         <v>726</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -1086,16 +1055,16 @@
         <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>48</v>
@@ -1104,7 +1073,7 @@
         <v>726</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -1139,16 +1108,16 @@
         <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>48</v>
@@ -1157,7 +1126,7 @@
         <v>726</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2">
         <v>17</v>
@@ -1192,16 +1161,16 @@
         <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>48</v>
@@ -1210,7 +1179,7 @@
         <v>726</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O6" s="2">
         <v>18</v>
@@ -1245,16 +1214,16 @@
         <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>48</v>
@@ -1263,7 +1232,7 @@
         <v>726</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O7" s="2">
         <v>19</v>
@@ -1295,19 +1264,19 @@
         <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>48</v>
@@ -1316,7 +1285,7 @@
         <v>726</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O8" s="2">
         <v>20</v>
@@ -1351,16 +1320,16 @@
         <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
@@ -1369,7 +1338,7 @@
         <v>726</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2">
         <v>21</v>
@@ -1401,19 +1370,19 @@
         <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>48</v>
@@ -1422,7 +1391,7 @@
         <v>726</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O10" s="2">
         <v>22</v>
@@ -1454,19 +1423,19 @@
         <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>48</v>
@@ -1475,7 +1444,7 @@
         <v>726</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O11" s="2">
         <v>23</v>
@@ -1507,19 +1476,19 @@
         <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>48</v>
@@ -1528,7 +1497,7 @@
         <v>726</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2">
         <v>24</v>
@@ -1560,19 +1529,19 @@
         <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2">
         <v>9000000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>48</v>
@@ -1581,7 +1550,7 @@
         <v>726</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O13" s="2">
         <v>25</v>
@@ -1616,16 +1585,16 @@
         <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>48</v>
@@ -1634,7 +1603,7 @@
         <v>726</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O14" s="2">
         <v>26</v>
@@ -1666,17 +1635,17 @@
         <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>48</v>
@@ -1685,7 +1654,7 @@
         <v>726</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O15" s="2">
         <v>27</v>
@@ -1717,17 +1686,17 @@
         <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>48</v>
@@ -1736,7 +1705,7 @@
         <v>726</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O16" s="2">
         <v>29</v>
@@ -1768,17 +1737,17 @@
         <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>48</v>
@@ -1787,7 +1756,7 @@
         <v>726</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O17" s="2">
         <v>30</v>
@@ -1819,17 +1788,17 @@
         <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>48</v>
@@ -1838,7 +1807,7 @@
         <v>726</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2">
         <v>31</v>
@@ -1870,17 +1839,17 @@
         <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>48</v>
@@ -1889,7 +1858,7 @@
         <v>726</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O19" s="2">
         <v>32</v>
@@ -1921,17 +1890,17 @@
         <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>48</v>
@@ -1940,7 +1909,7 @@
         <v>726</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O20" s="2">
         <v>33</v>
@@ -1972,17 +1941,17 @@
         <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>48</v>
@@ -1991,7 +1960,7 @@
         <v>726</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O21" s="2">
         <v>34</v>
@@ -2023,17 +1992,17 @@
         <v>56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>48</v>
@@ -2042,7 +2011,7 @@
         <v>726</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O22" s="2">
         <v>35</v>
@@ -2122,7 +2091,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>51.04</v>
@@ -2137,19 +2106,19 @@
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>48</v>
@@ -2158,7 +2127,7 @@
         <v>726</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O2" s="2">
         <v>38</v>
@@ -2175,7 +2144,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>191.7</v>
@@ -2187,22 +2156,22 @@
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>48</v>
@@ -2211,7 +2180,7 @@
         <v>726</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2">
         <v>39</v>
@@ -2228,7 +2197,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>191.5</v>
@@ -2240,22 +2209,22 @@
         <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>48</v>
@@ -2264,7 +2233,7 @@
         <v>726</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2">
         <v>40</v>
@@ -2281,7 +2250,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2">
         <v>25788.13</v>
@@ -2299,16 +2268,16 @@
         <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>48</v>
@@ -2317,7 +2286,7 @@
         <v>726</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2">
         <v>41</v>
@@ -2334,7 +2303,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
         <v>32.81</v>
@@ -2349,19 +2318,19 @@
         <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>48</v>
@@ -2370,7 +2339,7 @@
         <v>726</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O6" s="2">
         <v>42</v>
@@ -2387,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2">
         <v>103.51</v>
@@ -2402,17 +2371,17 @@
         <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>48</v>
@@ -2421,7 +2390,7 @@
         <v>726</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O7" s="2">
         <v>43</v>
@@ -2438,7 +2407,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
         <v>102.06</v>
@@ -2453,17 +2422,17 @@
         <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>48</v>
@@ -2472,7 +2441,7 @@
         <v>726</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O8" s="2">
         <v>44</v>
@@ -2489,13 +2458,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
@@ -2504,17 +2473,17 @@
         <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
@@ -2523,7 +2492,7 @@
         <v>726</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2">
         <v>45</v>
@@ -2540,13 +2509,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2">
         <v>6.73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>47</v>
@@ -2555,17 +2524,17 @@
         <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>48</v>
@@ -2574,7 +2543,7 @@
         <v>726</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O10" s="2">
         <v>46</v>
@@ -2591,13 +2560,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2">
         <v>7.05</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>47</v>
@@ -2606,17 +2575,17 @@
         <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>48</v>
@@ -2625,7 +2594,7 @@
         <v>726</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O11" s="2">
         <v>47</v>
@@ -2643,62 +2612,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -2708,13 +2621,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
@@ -2726,16 +2639,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>
@@ -2747,16 +2660,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
@@ -2768,16 +2681,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
@@ -2789,16 +2702,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>48</v>
@@ -2810,16 +2723,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
@@ -2831,16 +2744,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -2852,16 +2765,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -2873,16 +2786,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>48</v>
@@ -2894,16 +2807,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>48</v>
@@ -2915,16 +2828,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>48</v>
@@ -2936,16 +2849,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
@@ -2957,16 +2870,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>47</v>
@@ -2978,16 +2891,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -2999,16 +2912,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -3020,16 +2933,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>47</v>
@@ -3041,16 +2954,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -3062,16 +2975,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -3083,16 +2996,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -3104,16 +3017,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
@@ -3125,16 +3038,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
@@ -3146,22 +3059,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2">
         <v>2932316</v>
@@ -3169,16 +3082,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
@@ -3192,16 +3105,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>48</v>
@@ -3215,16 +3128,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>48</v>
@@ -3238,16 +3151,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>47</v>
@@ -3261,19 +3174,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2">
         <v>15095.1</v>
@@ -3284,16 +3197,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>47</v>
@@ -3307,16 +3220,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>47</v>
@@ -3330,16 +3243,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>47</v>
@@ -3348,7 +3261,7 @@
         <v>18.11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N33"/>
   <sheetViews>
@@ -3372,13 +3285,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3407,10 +3320,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -3422,19 +3335,19 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>48</v>
@@ -3443,18 +3356,18 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
@@ -3466,19 +3379,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>48</v>
@@ -3487,18 +3400,18 @@
         <v>726</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N3" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -3510,19 +3423,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2">
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>48</v>
@@ -3531,18 +3444,18 @@
         <v>726</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -3554,19 +3467,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2">
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>48</v>
@@ -3575,18 +3488,18 @@
         <v>726</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N5" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
@@ -3598,19 +3511,19 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2">
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>48</v>
@@ -3619,18 +3532,18 @@
         <v>726</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -3642,19 +3555,19 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2">
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>48</v>
@@ -3663,18 +3576,18 @@
         <v>726</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N7" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -3686,19 +3599,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2">
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>48</v>
@@ -3707,21 +3620,21 @@
         <v>726</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N8" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -3730,19 +3643,19 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2">
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>48</v>
@@ -3751,18 +3664,18 @@
         <v>726</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N9" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -3774,19 +3687,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2">
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>48</v>
@@ -3795,18 +3708,18 @@
         <v>726</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N10" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -3818,19 +3731,19 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>48</v>
@@ -3839,18 +3752,18 @@
         <v>726</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N11" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -3862,19 +3775,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2">
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>48</v>
@@ -3883,18 +3796,18 @@
         <v>726</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N12" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
@@ -3906,19 +3819,19 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>48</v>
@@ -3927,18 +3840,18 @@
         <v>726</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N13" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>48</v>
@@ -3950,19 +3863,19 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2">
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>48</v>
@@ -3971,18 +3884,18 @@
         <v>726</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N14" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -3994,19 +3907,19 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2">
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>48</v>
@@ -4015,18 +3928,18 @@
         <v>726</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N15" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -4038,19 +3951,19 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>48</v>
@@ -4059,18 +3972,18 @@
         <v>726</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N16" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>48</v>
@@ -4082,19 +3995,19 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2">
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>48</v>
@@ -4103,18 +4016,18 @@
         <v>726</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N17" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>48</v>
@@ -4126,19 +4039,19 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2">
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>48</v>
@@ -4147,18 +4060,18 @@
         <v>726</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N18" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>47</v>
@@ -4170,19 +4083,19 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2">
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>48</v>
@@ -4191,18 +4104,18 @@
         <v>726</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N19" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>47</v>
@@ -4214,19 +4127,19 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2">
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>48</v>
@@ -4235,18 +4148,18 @@
         <v>726</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N20" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>47</v>
@@ -4258,19 +4171,19 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2">
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>48</v>
@@ -4279,18 +4192,18 @@
         <v>726</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N21" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -4302,19 +4215,19 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2">
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>48</v>
@@ -4323,18 +4236,18 @@
         <v>726</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N22" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>47</v>
@@ -4346,19 +4259,19 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2">
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>48</v>
@@ -4367,18 +4280,18 @@
         <v>726</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N23" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
@@ -4390,19 +4303,19 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2">
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>48</v>
@@ -4411,18 +4324,18 @@
         <v>726</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N24" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>47</v>
@@ -4434,19 +4347,19 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2">
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>48</v>
@@ -4455,18 +4368,18 @@
         <v>726</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N25" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>47</v>
@@ -4478,19 +4391,19 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G26" s="2">
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>48</v>
@@ -4499,18 +4412,18 @@
         <v>726</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N26" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>47</v>
@@ -4522,19 +4435,19 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2">
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>48</v>
@@ -4543,18 +4456,18 @@
         <v>726</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N27" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>47</v>
@@ -4566,19 +4479,19 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G28" s="2">
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>48</v>
@@ -4587,18 +4500,18 @@
         <v>726</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N28" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
@@ -4610,19 +4523,19 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2">
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>48</v>
@@ -4631,18 +4544,18 @@
         <v>726</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N29" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
@@ -4654,19 +4567,19 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>48</v>
@@ -4675,18 +4588,18 @@
         <v>726</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N30" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
@@ -4698,19 +4611,19 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G31" s="2">
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>48</v>
@@ -4719,18 +4632,18 @@
         <v>726</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N31" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
@@ -4742,19 +4655,19 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2">
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>48</v>
@@ -4763,18 +4676,18 @@
         <v>726</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N32" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -4783,22 +4696,22 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2">
         <v>23500</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>48</v>
@@ -4807,10 +4720,10 @@
         <v>726</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N33" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4818,7 +4731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4828,13 +4741,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1">
         <v>235.29</v>
@@ -4843,7 +4756,7 @@
         <v>64.37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1">
         <v>457397</v>
@@ -4851,16 +4764,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>235.29</v>
@@ -4869,7 +4782,7 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H2" s="2">
         <v>457397</v>
@@ -4877,16 +4790,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -4895,7 +4808,7 @@
         <v>10.35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H3" s="2">
         <v>423683</v>
@@ -4903,16 +4816,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2">
         <v>195.77</v>
@@ -4921,7 +4834,7 @@
         <v>105.05</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H4" s="2">
         <v>621082</v>
@@ -4929,16 +4842,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2">
         <v>281.97</v>
@@ -4947,7 +4860,7 @@
         <v>64.37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H5" s="2">
         <v>548142</v>
@@ -4955,16 +4868,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2">
         <v>16.936</v>
@@ -4973,7 +4886,7 @@
         <v>1720.26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2">
         <v>880040</v>
@@ -4981,16 +4894,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2">
         <v>854.27</v>
@@ -4999,7 +4912,7 @@
         <v>150.83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2">
         <v>3891256</v>
@@ -5007,16 +4920,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2">
         <v>1705.24</v>
@@ -5025,7 +4938,7 @@
         <v>40.19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H8" s="2">
         <v>2069714</v>
@@ -5033,16 +4946,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2">
         <v>663.01</v>
@@ -5051,7 +4964,7 @@
         <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2">
         <v>1741966</v>
@@ -5059,16 +4972,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2">
         <v>1028.43</v>
@@ -5077,7 +4990,7 @@
         <v>26.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H10" s="2">
         <v>830506</v>
@@ -5085,16 +4998,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2">
         <v>17.55</v>
@@ -5103,7 +5016,7 @@
         <v>64.37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2">
         <v>34116</v>
@@ -5114,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5124,45 +5037,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1">
         <v>1316480</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5170,7 +5083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5183,10 +5096,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
@@ -5195,21 +5108,21 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -5218,30 +5131,30 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="165">
   <si>
     <t>name</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>6000000元（與18地號土地一併購買）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>中華郵政股份有限公司</t>
@@ -2112,7 +2115,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>63</v>
@@ -2165,7 +2168,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>63</v>
@@ -2218,7 +2221,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>63</v>
@@ -2271,7 +2274,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
@@ -2324,7 +2327,7 @@
         <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>63</v>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>63</v>
@@ -2426,7 +2429,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>63</v>
@@ -2477,7 +2480,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>63</v>
@@ -2528,7 +2531,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>63</v>
@@ -2579,7 +2582,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>63</v>
@@ -2621,13 +2624,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
@@ -2642,13 +2645,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>
@@ -2663,13 +2666,13 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
@@ -2684,13 +2687,13 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
@@ -2705,13 +2708,13 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>48</v>
@@ -2726,13 +2729,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
@@ -2747,13 +2750,13 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -2768,13 +2771,13 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -2789,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>48</v>
@@ -2810,13 +2813,13 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>48</v>
@@ -2831,13 +2834,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>48</v>
@@ -2852,13 +2855,13 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
@@ -2873,13 +2876,13 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>47</v>
@@ -2894,13 +2897,13 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -2915,13 +2918,13 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -2936,13 +2939,13 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>47</v>
@@ -2957,13 +2960,13 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -2978,13 +2981,13 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -2999,13 +3002,13 @@
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -3020,13 +3023,13 @@
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
@@ -3041,13 +3044,13 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
@@ -3062,19 +3065,19 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2">
         <v>2932316</v>
@@ -3085,13 +3088,13 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
@@ -3108,13 +3111,13 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>48</v>
@@ -3131,13 +3134,13 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>48</v>
@@ -3154,13 +3157,13 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>47</v>
@@ -3177,16 +3180,16 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" s="2">
         <v>15095.1</v>
@@ -3200,13 +3203,13 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>47</v>
@@ -3223,13 +3226,13 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>47</v>
@@ -3246,13 +3249,13 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>47</v>
@@ -3261,7 +3264,7 @@
         <v>18.11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3285,13 +3288,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3323,7 +3326,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -3335,13 +3338,13 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>63</v>
@@ -3367,7 +3370,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
@@ -3379,13 +3382,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>63</v>
@@ -3411,7 +3414,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -3423,13 +3426,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2">
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>63</v>
@@ -3455,7 +3458,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -3467,13 +3470,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2">
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>63</v>
@@ -3499,7 +3502,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
@@ -3511,13 +3514,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>63</v>
@@ -3543,7 +3546,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -3555,13 +3558,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2">
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>63</v>
@@ -3587,7 +3590,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -3599,13 +3602,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2">
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>63</v>
@@ -3631,10 +3634,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -3643,13 +3646,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2">
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>63</v>
@@ -3675,7 +3678,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -3687,13 +3690,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2">
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>63</v>
@@ -3719,7 +3722,7 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -3731,13 +3734,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>63</v>
@@ -3763,7 +3766,7 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -3775,13 +3778,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2">
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>63</v>
@@ -3807,7 +3810,7 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
@@ -3819,13 +3822,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>63</v>
@@ -3851,7 +3854,7 @@
         <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>48</v>
@@ -3863,13 +3866,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2">
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
@@ -3895,7 +3898,7 @@
         <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -3907,13 +3910,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2">
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>63</v>
@@ -3939,7 +3942,7 @@
         <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -3951,13 +3954,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>63</v>
@@ -3983,7 +3986,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>48</v>
@@ -3995,13 +3998,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2">
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>63</v>
@@ -4027,7 +4030,7 @@
         <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>48</v>
@@ -4039,13 +4042,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2">
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>63</v>
@@ -4071,7 +4074,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>47</v>
@@ -4083,13 +4086,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2">
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>63</v>
@@ -4115,7 +4118,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>47</v>
@@ -4127,13 +4130,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2">
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>63</v>
@@ -4159,7 +4162,7 @@
         <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>47</v>
@@ -4171,13 +4174,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2">
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>63</v>
@@ -4203,7 +4206,7 @@
         <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -4215,13 +4218,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2">
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>63</v>
@@ -4247,7 +4250,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>47</v>
@@ -4259,13 +4262,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2">
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>63</v>
@@ -4291,7 +4294,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
@@ -4303,13 +4306,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2">
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>63</v>
@@ -4335,7 +4338,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>47</v>
@@ -4347,13 +4350,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2">
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>63</v>
@@ -4379,7 +4382,7 @@
         <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>47</v>
@@ -4391,13 +4394,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2">
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>63</v>
@@ -4423,7 +4426,7 @@
         <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>47</v>
@@ -4435,13 +4438,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2">
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>63</v>
@@ -4467,7 +4470,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>47</v>
@@ -4479,13 +4482,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2">
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>63</v>
@@ -4511,7 +4514,7 @@
         <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
@@ -4523,13 +4526,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2">
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>63</v>
@@ -4555,7 +4558,7 @@
         <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
@@ -4567,13 +4570,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>63</v>
@@ -4599,7 +4602,7 @@
         <v>133</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
@@ -4611,13 +4614,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" s="2">
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>63</v>
@@ -4643,7 +4646,7 @@
         <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
@@ -4655,13 +4658,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G32" s="2">
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>63</v>
@@ -4687,7 +4690,7 @@
         <v>135</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -4696,16 +4699,16 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G33" s="2">
         <v>23500</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>63</v>
@@ -4741,13 +4744,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1">
         <v>235.29</v>
@@ -4756,7 +4759,7 @@
         <v>64.37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1">
         <v>457397</v>
@@ -4767,13 +4770,13 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2">
         <v>235.29</v>
@@ -4782,7 +4785,7 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
         <v>457397</v>
@@ -4793,13 +4796,13 @@
         <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -4808,7 +4811,7 @@
         <v>10.35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2">
         <v>423683</v>
@@ -4819,13 +4822,13 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2">
         <v>195.77</v>
@@ -4834,7 +4837,7 @@
         <v>105.05</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2">
         <v>621082</v>
@@ -4845,13 +4848,13 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2">
         <v>281.97</v>
@@ -4860,7 +4863,7 @@
         <v>64.37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
         <v>548142</v>
@@ -4871,13 +4874,13 @@
         <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2">
         <v>16.936</v>
@@ -4886,7 +4889,7 @@
         <v>1720.26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2">
         <v>880040</v>
@@ -4897,13 +4900,13 @@
         <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2">
         <v>854.27</v>
@@ -4912,7 +4915,7 @@
         <v>150.83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2">
         <v>3891256</v>
@@ -4923,13 +4926,13 @@
         <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2">
         <v>1705.24</v>
@@ -4938,7 +4941,7 @@
         <v>40.19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2">
         <v>2069714</v>
@@ -4949,13 +4952,13 @@
         <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2">
         <v>663.01</v>
@@ -4964,7 +4967,7 @@
         <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2">
         <v>1741966</v>
@@ -4975,13 +4978,13 @@
         <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2">
         <v>1028.43</v>
@@ -4990,7 +4993,7 @@
         <v>26.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2">
         <v>830506</v>
@@ -5001,13 +5004,13 @@
         <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2">
         <v>17.55</v>
@@ -5016,7 +5019,7 @@
         <v>64.37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H11" s="2">
         <v>34116</v>
@@ -5037,22 +5040,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1">
         <v>1316480</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5060,22 +5063,22 @@
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5096,10 +5099,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
@@ -5108,7 +5111,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5119,10 +5122,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -5131,7 +5134,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5142,19 +5145,19 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="166">
   <si>
     <t>name</t>
   </si>
@@ -268,60 +268,69 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>基隆一信</t>
+  </si>
+  <si>
+    <t>基隆二信</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>匯豐(台灣)商業銀行</t>
+  </si>
+  <si>
+    <t>薹灣銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業1艮行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>基隆一信</t>
-  </si>
-  <si>
-    <t>基隆二信</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>匯豐(台灣)商業銀行</t>
-  </si>
-  <si>
-    <t>薹灣銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業1艮行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -337,19 +346,13 @@
     <t>林水术</t>
   </si>
   <si>
-    <t>9709658</t>
-  </si>
-  <si>
-    <t>539.86</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>佳福公司</t>
@@ -2616,13 +2619,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2633,638 +2636,1220 @@
         <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>74104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>74104</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2">
+        <v>726</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>80447</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2">
+        <v>726</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>22488</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2">
+        <v>726</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1404684</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2">
+        <v>726</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>51038</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>726</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>19918</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2">
+        <v>726</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>831</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2">
+        <v>726</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>38490</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2">
+        <v>726</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>450647</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2">
+        <v>726</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2">
+        <v>726</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>26988</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2">
+        <v>726</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>9648</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2">
+        <v>726</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>110625</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2">
+        <v>726</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>69788</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="2">
+        <v>726</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1294297</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="2">
+        <v>726</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>625591</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="2">
+        <v>726</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>155380</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="2">
+        <v>726</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>431930</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="2">
+        <v>726</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>84764</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="2">
+        <v>726</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>822643.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="2">
+        <v>726</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>2932316</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="2">
+        <v>726</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="G23" s="2">
         <v>7.12</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="2">
+        <v>726</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="2">
-        <v>1.54</v>
-      </c>
-      <c r="G24" s="2">
         <v>6.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="2">
+        <v>726</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="G25" s="2">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="2">
+        <v>726</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="2">
-        <v>33148.2</v>
-      </c>
-      <c r="G26" s="2">
         <v>1002070</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="2">
+        <v>726</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2">
-        <v>15095.1</v>
-      </c>
-      <c r="G27" s="2">
         <v>616332.93</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="2">
+        <v>726</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="2">
-        <v>3738.91</v>
-      </c>
-      <c r="G28" s="2">
         <v>113027.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="2">
+        <v>726</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="G29" s="2">
         <v>9.44</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="2">
+        <v>726</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="2">
-        <v>18.11</v>
+        <v>539.86</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="2">
+        <v>726</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3288,13 +3873,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3326,7 +3911,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -3338,13 +3923,13 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>63</v>
@@ -3370,7 +3955,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
@@ -3382,13 +3967,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>63</v>
@@ -3414,7 +3999,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -3426,13 +4011,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2">
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>63</v>
@@ -3458,7 +4043,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -3470,13 +4055,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2">
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>63</v>
@@ -3502,7 +4087,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
@@ -3514,13 +4099,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2">
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>63</v>
@@ -3546,7 +4131,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -3558,13 +4143,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2">
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>63</v>
@@ -3590,7 +4175,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -3602,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2">
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>63</v>
@@ -3634,10 +4219,10 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -3646,13 +4231,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2">
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>63</v>
@@ -3678,7 +4263,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -3690,13 +4275,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2">
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>63</v>
@@ -3722,7 +4307,7 @@
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -3734,13 +4319,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>63</v>
@@ -3766,7 +4351,7 @@
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -3778,13 +4363,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2">
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>63</v>
@@ -3810,7 +4395,7 @@
         <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
@@ -3822,13 +4407,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>63</v>
@@ -3854,7 +4439,7 @@
         <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>48</v>
@@ -3866,13 +4451,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2">
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
@@ -3898,7 +4483,7 @@
         <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -3910,13 +4495,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2">
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>63</v>
@@ -3942,7 +4527,7 @@
         <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -3954,13 +4539,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>63</v>
@@ -3986,7 +4571,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>48</v>
@@ -3998,13 +4583,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2">
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>63</v>
@@ -4030,7 +4615,7 @@
         <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>48</v>
@@ -4042,13 +4627,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2">
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>63</v>
@@ -4074,7 +4659,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>47</v>
@@ -4086,13 +4671,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2">
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>63</v>
@@ -4118,7 +4703,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>47</v>
@@ -4130,13 +4715,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2">
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>63</v>
@@ -4162,7 +4747,7 @@
         <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>47</v>
@@ -4174,13 +4759,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2">
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>63</v>
@@ -4206,7 +4791,7 @@
         <v>124</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -4218,13 +4803,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2">
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>63</v>
@@ -4250,7 +4835,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>47</v>
@@ -4262,13 +4847,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2">
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>63</v>
@@ -4294,7 +4879,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
@@ -4306,13 +4891,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2">
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>63</v>
@@ -4338,7 +4923,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>47</v>
@@ -4350,13 +4935,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2">
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>63</v>
@@ -4382,7 +4967,7 @@
         <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>47</v>
@@ -4394,13 +4979,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G26" s="2">
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>63</v>
@@ -4426,7 +5011,7 @@
         <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>47</v>
@@ -4438,13 +5023,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G27" s="2">
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>63</v>
@@ -4470,7 +5055,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>47</v>
@@ -4482,13 +5067,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2">
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>63</v>
@@ -4514,7 +5099,7 @@
         <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
@@ -4526,13 +5111,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G29" s="2">
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>63</v>
@@ -4558,7 +5143,7 @@
         <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
@@ -4570,13 +5155,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>63</v>
@@ -4602,7 +5187,7 @@
         <v>133</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
@@ -4614,13 +5199,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G31" s="2">
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>63</v>
@@ -4646,7 +5231,7 @@
         <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
@@ -4658,13 +5243,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G32" s="2">
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>63</v>
@@ -4690,7 +5275,7 @@
         <v>135</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -4699,16 +5284,16 @@
         <v>2350</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G33" s="2">
         <v>23500</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>63</v>
@@ -4744,13 +5329,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1">
         <v>235.29</v>
@@ -4759,7 +5344,7 @@
         <v>64.37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1">
         <v>457397</v>
@@ -4770,13 +5355,13 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2">
         <v>235.29</v>
@@ -4785,7 +5370,7 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
         <v>457397</v>
@@ -4796,13 +5381,13 @@
         <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -4811,7 +5396,7 @@
         <v>10.35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2">
         <v>423683</v>
@@ -4822,13 +5407,13 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2">
         <v>195.77</v>
@@ -4837,7 +5422,7 @@
         <v>105.05</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2">
         <v>621082</v>
@@ -4848,13 +5433,13 @@
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E5" s="2">
         <v>281.97</v>
@@ -4863,7 +5448,7 @@
         <v>64.37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2">
         <v>548142</v>
@@ -4874,13 +5459,13 @@
         <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2">
         <v>16.936</v>
@@ -4889,7 +5474,7 @@
         <v>1720.26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2">
         <v>880040</v>
@@ -4900,13 +5485,13 @@
         <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="2">
         <v>854.27</v>
@@ -4915,7 +5500,7 @@
         <v>150.83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2">
         <v>3891256</v>
@@ -4926,13 +5511,13 @@
         <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2">
         <v>1705.24</v>
@@ -4941,7 +5526,7 @@
         <v>40.19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2">
         <v>2069714</v>
@@ -4952,13 +5537,13 @@
         <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E9" s="2">
         <v>663.01</v>
@@ -4967,7 +5552,7 @@
         <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2">
         <v>1741966</v>
@@ -4978,13 +5563,13 @@
         <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2">
         <v>1028.43</v>
@@ -4993,7 +5578,7 @@
         <v>26.74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2">
         <v>830506</v>
@@ -5004,13 +5589,13 @@
         <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2">
         <v>17.55</v>
@@ -5019,7 +5604,7 @@
         <v>64.37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H11" s="2">
         <v>34116</v>
@@ -5040,22 +5625,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1">
         <v>1316480</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5063,22 +5648,22 @@
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5099,10 +5684,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
@@ -5111,7 +5696,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5122,10 +5707,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -5134,7 +5719,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5145,19 +5730,19 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -463,31 +463,37 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>貝萊德世界礦業基金</t>
   </si>
   <si>
+    <t>天達動力資源基金</t>
+  </si>
+  <si>
+    <t>施羅德環球美元流動基金</t>
+  </si>
+  <si>
+    <t>瑞銀美元基金</t>
+  </si>
+  <si>
+    <t>貝萊德美元儲備基金</t>
+  </si>
+  <si>
+    <t>貝萊德環球資產配置基金</t>
+  </si>
+  <si>
+    <t>景順美元儲備基</t>
+  </si>
+  <si>
+    <t>貝萊德新興市場基金</t>
+  </si>
+  <si>
     <t>台北富邦銀行</t>
   </si>
   <si>
-    <t>天達動力資源基金</t>
-  </si>
-  <si>
-    <t>施羅德環球美元流動基金</t>
-  </si>
-  <si>
-    <t>瑞銀美元基金</t>
-  </si>
-  <si>
-    <t>貝萊德美元儲備基金</t>
-  </si>
-  <si>
-    <t>貝萊德環球資產配置基金</t>
-  </si>
-  <si>
-    <t>景順美元儲備基</t>
-  </si>
-  <si>
-    <t>貝萊德新興市場基金</t>
+    <t>fund</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -5321,47 +5327,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="1">
-        <v>235.29</v>
-      </c>
-      <c r="F1" s="1">
-        <v>64.37</v>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1">
-        <v>457397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>235.29</v>
@@ -5375,8 +5402,29 @@
       <c r="H2" s="2">
         <v>457397</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2">
+        <v>726</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>146</v>
       </c>
@@ -5387,7 +5435,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -5401,8 +5449,29 @@
       <c r="H3" s="2">
         <v>423683</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2">
+        <v>726</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>147</v>
       </c>
@@ -5413,7 +5482,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2">
         <v>195.77</v>
@@ -5427,19 +5496,40 @@
       <c r="H4" s="2">
         <v>621082</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2">
+        <v>726</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2">
         <v>281.97</v>
@@ -5453,8 +5543,29 @@
       <c r="H5" s="2">
         <v>548142</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>726</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>149</v>
       </c>
@@ -5465,7 +5576,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2">
         <v>16.936</v>
@@ -5479,8 +5590,29 @@
       <c r="H6" s="2">
         <v>880040</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>726</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>150</v>
       </c>
@@ -5491,7 +5623,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
         <v>854.27</v>
@@ -5505,8 +5637,29 @@
       <c r="H7" s="2">
         <v>3891256</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2">
+        <v>726</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>151</v>
       </c>
@@ -5517,7 +5670,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2">
         <v>1705.24</v>
@@ -5531,8 +5684,29 @@
       <c r="H8" s="2">
         <v>2069714</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2">
+        <v>726</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>152</v>
       </c>
@@ -5543,7 +5717,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2">
         <v>663.01</v>
@@ -5557,8 +5731,29 @@
       <c r="H9" s="2">
         <v>1741966</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="2">
+        <v>726</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>155</v>
       </c>
@@ -5569,7 +5764,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E10" s="2">
         <v>1028.43</v>
@@ -5583,19 +5778,40 @@
       <c r="H10" s="2">
         <v>830506</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2">
+        <v>726</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E11" s="2">
         <v>17.55</v>
@@ -5608,6 +5824,27 @@
       </c>
       <c r="H11" s="2">
         <v>34116</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="2">
+        <v>726</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="2">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5625,22 +5862,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1">
         <v>1316480</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5648,22 +5885,22 @@
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5684,10 +5921,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
@@ -5696,7 +5933,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5707,10 +5944,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -5719,7 +5956,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5730,19 +5967,19 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2011-11-22_財產申報表_tmpc12c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="174">
   <si>
     <t>name</t>
   </si>
@@ -496,6 +496,12 @@
     <t>fund</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
@@ -508,22 +514,34 @@
     <t>設定抵押</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>大春報關股份有限公司</t>
   </si>
   <si>
+    <t>鎮洲裝卸股份有限公司</t>
+  </si>
+  <si>
     <t>基隆市孝三路101號3樓</t>
   </si>
   <si>
+    <t>基隆市中正區港通里中正路12號7樓</t>
+  </si>
+  <si>
+    <t>86年</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>鎮洲裝卸股份有限公司</t>
-  </si>
-  <si>
-    <t>基隆市中正區港通里中正路12號7樓</t>
-  </si>
-  <si>
-    <t>86年</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -5854,53 +5872,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1316480</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>1316480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2">
+        <v>726</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="2">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5910,33 +5970,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="1">
-        <v>375000</v>
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>184</v>
       </c>
@@ -5944,10 +6025,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -5956,10 +6037,31 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2">
+        <v>726</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>185</v>
       </c>
@@ -5967,19 +6069,40 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2">
+        <v>726</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="2">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
